--- a/data/업체배출량/2020년도 업체별 명세서 주요정보_21.6.25기준(정정 최종).xlsx
+++ b/data/업체배출량/2020년도 업체별 명세서 주요정보_21.6.25기준(정정 최종).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\OneDrive\바탕 화면\업체배출량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B7BAD6-0EBA-4F4E-8EB5-7B933CBA0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD815E7-711D-47C1-B0B5-BCCFBBF210F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명세서 주요정보(2020)_전체" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10649" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10649" uniqueCount="1145">
   <si>
     <t>번호</t>
   </si>
@@ -3535,6 +3535,10 @@
   </si>
   <si>
     <t>에너지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3720,7 +3724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3795,6 +3799,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -36069,8 +36076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J640"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -36091,8 +36098,8 @@
       <c r="B1" s="18" t="s">
         <v>1136</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
+      <c r="C1" s="25" t="s">
+        <v>1144</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -55245,8 +55252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -55266,8 +55273,8 @@
       <c r="B1" s="18" t="s">
         <v>1137</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
+      <c r="C1" s="25" t="s">
+        <v>1144</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>

--- a/data/업체배출량/2020년도 업체별 명세서 주요정보_21.6.25기준(정정 최종).xlsx
+++ b/data/업체배출량/2020년도 업체별 명세서 주요정보_21.6.25기준(정정 최종).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\OneDrive\바탕 화면\업체배출량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD815E7-711D-47C1-B0B5-BCCFBBF210F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4838497-A13F-4114-9E5A-0C554B0DC371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명세서 주요정보(2020)_전체" sheetId="3" r:id="rId1"/>
@@ -3510,10 +3510,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>관장기관(주무관청)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>***</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3540,6 +3536,10 @@
   <si>
     <t>업체명</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관장기관</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4215,13 +4215,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>1142</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>1143</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>6</v>
@@ -9482,7 +9482,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
@@ -21350,7 +21350,7 @@
         <v>1134</v>
       </c>
       <c r="H572" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I572" s="8" t="s">
         <v>443</v>
@@ -36061,7 +36061,7 @@
     </row>
     <row r="1064" spans="1:10">
       <c r="A1064" s="24" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -36076,8 +36076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J640"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -36096,10 +36096,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -36111,10 +36111,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>1142</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>1143</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>5</v>
@@ -40946,7 +40946,7 @@
         <v>1134</v>
       </c>
       <c r="H162" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>443</v>
@@ -55237,7 +55237,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640" s="24" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -55252,8 +55252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J427"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -55271,10 +55271,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -55286,10 +55286,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>1142</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>1143</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>5</v>
@@ -60523,7 +60523,7 @@
         <v>4</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
@@ -68020,7 +68020,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427" s="24" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
